--- a/biology/Botanique/Thymus_herba-barona/Thymus_herba-barona.xlsx
+++ b/biology/Botanique/Thymus_herba-barona/Thymus_herba-barona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herba-barona (Thymus herba-barona) ou thym de Corse (arba barona en langue corse), est un sous-arbrisseau de la famille des Lamiacées appartenant au genre Thymus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante aromatique basse, n'excédant pas 15 cm de haut, aux tiges radicantes aux nœuds, aux groupes de fleurs sur pédoncules rameux partant du même point et arrivant à une même hauteur, aux courtes hampes florales dressées. De juillet à août, son feuillage aromatique vert à reflets pourprés sous le soleil, se couvre de petites fleurs blanches, roses, groupées en capitules terminaux. Après la floraison, viennent les fruits formés de quatre petits akènes.
 L'arba barona (en langue corse) (ou Thymari grec (timo)) pousse surtout en montagne. On la découvre notamment au col de Bigorno (885 mètres d'altitude), poussant au milieu des rochers.
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culinaires
-Si l'on en croit son épithète, c'est le grand seigneur des herbes aromatiques[1]. Composant du bouquet garni culinaire, il résiste aux longues cuissons.
-Médicinales
-Son huile essentielle contient du thymol et du carvacrol, excellents antiseptiques, utilisés dans les sirops ou infusions contre la toux, et en tisane pour aider la digestion et activer la circulation sanguine.
+          <t>Culinaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'on en croit son épithète, c'est le grand seigneur des herbes aromatiques. Composant du bouquet garni culinaire, il résiste aux longues cuissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thymus_herba-barona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thymus_herba-barona</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son huile essentielle contient du thymol et du carvacrol, excellents antiseptiques, utilisés dans les sirops ou infusions contre la toux, et en tisane pour aider la digestion et activer la circulation sanguine.
 </t>
         </is>
       </c>
